--- a/Code/Results/Cases/Case_0_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_88/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09617643880900317</v>
+        <v>0.2143484679778282</v>
       </c>
       <c r="D2">
-        <v>0.05525530877304874</v>
+        <v>0.02380025060995195</v>
       </c>
       <c r="E2">
-        <v>0.5476833799234839</v>
+        <v>0.2140565575044207</v>
       </c>
       <c r="F2">
-        <v>0.3550913794956401</v>
+        <v>0.4876855245406659</v>
       </c>
       <c r="G2">
-        <v>0.2976197570894143</v>
+        <v>0.3305297921427695</v>
       </c>
       <c r="H2">
-        <v>0.1256842650589221</v>
+        <v>0.4984295297481438</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.409045136986094</v>
+        <v>0.4487302040882639</v>
       </c>
       <c r="M2">
-        <v>33.77878247301777</v>
+        <v>10.85609145848326</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8497691020066753</v>
+        <v>1.590813011429276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06999526998935579</v>
+        <v>0.2246088004198441</v>
       </c>
       <c r="D3">
-        <v>0.04763531429973256</v>
+        <v>0.02184503657546344</v>
       </c>
       <c r="E3">
-        <v>0.4533818972882102</v>
+        <v>0.2004684574231206</v>
       </c>
       <c r="F3">
-        <v>0.2921375188103781</v>
+        <v>0.4985428804552541</v>
       </c>
       <c r="G3">
-        <v>0.2307554852904801</v>
+        <v>0.342170122640951</v>
       </c>
       <c r="H3">
-        <v>0.1124541666827668</v>
+        <v>0.5131071354566643</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.183158568011919</v>
+        <v>0.4017053660479917</v>
       </c>
       <c r="M3">
-        <v>28.80844773575689</v>
+        <v>9.52247177572184</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.679349106984219</v>
+        <v>1.645694871359751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05866643218811163</v>
+        <v>0.2314175227517836</v>
       </c>
       <c r="D4">
-        <v>0.04315065897272774</v>
+        <v>0.02064819267901186</v>
       </c>
       <c r="E4">
-        <v>0.4010261595080777</v>
+        <v>0.1923913705296698</v>
       </c>
       <c r="F4">
-        <v>0.2597985497795037</v>
+        <v>0.5061426335686932</v>
       </c>
       <c r="G4">
-        <v>0.1970510968083659</v>
+        <v>0.350218186585856</v>
       </c>
       <c r="H4">
-        <v>0.1077836088266793</v>
+        <v>0.5227868813633876</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.054042023254937</v>
+        <v>0.3730637187281616</v>
       </c>
       <c r="M4">
-        <v>25.88287658473683</v>
+        <v>8.700468907342611</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5975195187569398</v>
+        <v>1.682685390222474</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05500281662199313</v>
+        <v>0.234317636652122</v>
       </c>
       <c r="D5">
-        <v>0.04135981650285458</v>
+        <v>0.02016138879231733</v>
       </c>
       <c r="E5">
-        <v>0.3807731452415126</v>
+        <v>0.1891646336448005</v>
       </c>
       <c r="F5">
-        <v>0.2479301045116316</v>
+        <v>0.5094703732676891</v>
       </c>
       <c r="G5">
-        <v>0.184826537027611</v>
+        <v>0.3537196949427255</v>
       </c>
       <c r="H5">
-        <v>0.1066048647443836</v>
+        <v>0.5268973298281594</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.003274058844738</v>
+        <v>0.3614472118009076</v>
       </c>
       <c r="M5">
-        <v>24.71464487479864</v>
+        <v>8.364675369643066</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5688904697173172</v>
+        <v>1.698573219334605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0544461353642447</v>
+        <v>0.2348067081310887</v>
       </c>
       <c r="D6">
-        <v>0.04106437102901594</v>
+        <v>0.02008061100747227</v>
       </c>
       <c r="E6">
-        <v>0.3774678973723908</v>
+        <v>0.1886326859133476</v>
       </c>
       <c r="F6">
-        <v>0.2460315013708225</v>
+        <v>0.5100367666705807</v>
       </c>
       <c r="G6">
-        <v>0.182879422111462</v>
+        <v>0.3543143815443557</v>
       </c>
       <c r="H6">
-        <v>0.1064492984890251</v>
+        <v>0.5275898264528749</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9949420146170382</v>
+        <v>0.3595215481908269</v>
       </c>
       <c r="M6">
-        <v>24.5219170480409</v>
+        <v>8.30886683126397</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5643960762254352</v>
+        <v>1.701260127539626</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05861343835790933</v>
+        <v>0.231456129725899</v>
       </c>
       <c r="D7">
-        <v>0.04312637212061787</v>
+        <v>0.02064162374562528</v>
       </c>
       <c r="E7">
-        <v>0.4007489915441838</v>
+        <v>0.1923475942547341</v>
       </c>
       <c r="F7">
-        <v>0.2596335062123458</v>
+        <v>0.5061865833515498</v>
       </c>
       <c r="G7">
-        <v>0.1968805080135425</v>
+        <v>0.3502645169983865</v>
       </c>
       <c r="H7">
-        <v>0.1077649445354965</v>
+        <v>0.5228416473364774</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.053350500938649</v>
+        <v>0.3729068348544899</v>
       </c>
       <c r="M7">
-        <v>25.86703324288942</v>
+        <v>8.695943634059404</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5971154953926003</v>
+        <v>1.68289638217837</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08599728516072247</v>
+        <v>0.2177791315052531</v>
       </c>
       <c r="D8">
-        <v>0.05257920275884942</v>
+        <v>0.02312532802681488</v>
       </c>
       <c r="E8">
-        <v>0.5138002318918069</v>
+        <v>0.2093148146413526</v>
       </c>
       <c r="F8">
-        <v>0.3318847890185168</v>
+        <v>0.4912330782928436</v>
       </c>
       <c r="G8">
-        <v>0.2728083416493376</v>
+        <v>0.3343535846694863</v>
       </c>
       <c r="H8">
-        <v>0.1203078515842648</v>
+        <v>0.5033505898925199</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.328781577220923</v>
+        <v>0.4324659760582676</v>
       </c>
       <c r="M8">
-        <v>32.03342681468951</v>
+        <v>10.39689593605277</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7855787520151409</v>
+        <v>1.609044327412633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.193356969861739</v>
+        <v>0.1951084218310228</v>
       </c>
       <c r="D9">
-        <v>0.07347733716567717</v>
+        <v>0.02802568257676796</v>
       </c>
       <c r="E9">
-        <v>0.8004117778095576</v>
+        <v>0.2448042600444467</v>
       </c>
       <c r="F9">
-        <v>0.5412995344533229</v>
+        <v>0.4694909897461415</v>
       </c>
       <c r="G9">
-        <v>0.5016225787436213</v>
+        <v>0.3105112337966673</v>
       </c>
       <c r="H9">
-        <v>0.1814477305493085</v>
+        <v>0.470516029788925</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.982500608819663</v>
+        <v>0.5512590821140293</v>
       </c>
       <c r="M9">
-        <v>45.64178406914863</v>
+        <v>13.70905653880578</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.401117780001726</v>
+        <v>1.490984138753191</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3440050683082205</v>
+        <v>0.1811412725644459</v>
       </c>
       <c r="D10">
-        <v>0.09231524113562273</v>
+        <v>0.03164611532149308</v>
       </c>
       <c r="E10">
-        <v>1.102038960263243</v>
+        <v>0.2723884410755772</v>
       </c>
       <c r="F10">
-        <v>0.7769542647391674</v>
+        <v>0.4583842861008876</v>
       </c>
       <c r="G10">
-        <v>0.7685751382539223</v>
+        <v>0.2977739445548906</v>
       </c>
       <c r="H10">
-        <v>0.2697865478510977</v>
+        <v>0.4498005986246056</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.624642521785773</v>
+        <v>0.6400026013581623</v>
       </c>
       <c r="M10">
-        <v>57.80676816787087</v>
+        <v>16.13107748827741</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.153937205995902</v>
+        <v>1.421443302518981</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4487366129564236</v>
+        <v>0.1754071778944706</v>
       </c>
       <c r="D11">
-        <v>0.1027395357379177</v>
+        <v>0.03329813417441585</v>
       </c>
       <c r="E11">
-        <v>1.286430198235308</v>
+        <v>0.2853027155737919</v>
       </c>
       <c r="F11">
-        <v>0.9219014802583558</v>
+        <v>0.4544423203391617</v>
       </c>
       <c r="G11">
-        <v>0.9364793275480565</v>
+        <v>0.2930819396432156</v>
       </c>
       <c r="H11">
-        <v>0.3298960661661852</v>
+        <v>0.4411437846391522</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.001243489349889</v>
+        <v>0.6807532758125205</v>
       </c>
       <c r="M11">
-        <v>64.45888172601468</v>
+        <v>17.23117341454076</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.636709487742024</v>
+        <v>1.393735803920237</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4979062481259007</v>
+        <v>0.1733280548597378</v>
       </c>
       <c r="D12">
-        <v>0.1071853800038554</v>
+        <v>0.03392449331468583</v>
       </c>
       <c r="E12">
-        <v>1.368797210187708</v>
+        <v>0.2902489303474738</v>
       </c>
       <c r="F12">
-        <v>0.9861982771846556</v>
+        <v>0.4531138299475046</v>
       </c>
       <c r="G12">
-        <v>1.011761892574825</v>
+        <v>0.2914691657602049</v>
       </c>
       <c r="H12">
-        <v>0.3576224673435746</v>
+        <v>0.4379782390161751</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.166376049686761</v>
+        <v>0.6962445151754935</v>
       </c>
       <c r="M12">
-        <v>67.2727683910058</v>
+        <v>17.6475706522665</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.854749595888933</v>
+        <v>1.383824820013643</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4867664288540823</v>
+        <v>0.1737716767427742</v>
       </c>
       <c r="D13">
-        <v>0.1061988357826209</v>
+        <v>0.03378956033314751</v>
       </c>
       <c r="E13">
-        <v>1.350329340399739</v>
+        <v>0.2891811368987618</v>
       </c>
       <c r="F13">
-        <v>0.9718172956399798</v>
+        <v>0.453392565740856</v>
       </c>
       <c r="G13">
-        <v>0.9948823991410762</v>
+        <v>0.291809123543743</v>
       </c>
       <c r="H13">
-        <v>0.3513695125071621</v>
+        <v>0.4386549500755876</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.129502164960485</v>
+        <v>0.6929054531267127</v>
       </c>
       <c r="M13">
-        <v>66.6496800103817</v>
+        <v>17.55789930200064</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.805787708351119</v>
+        <v>1.385933209525007</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4525482779193908</v>
+        <v>0.1752342598171737</v>
       </c>
       <c r="D14">
-        <v>0.1030929871156516</v>
+        <v>0.03334964927472583</v>
       </c>
       <c r="E14">
-        <v>1.292897590314702</v>
+        <v>0.2857085050412422</v>
       </c>
       <c r="F14">
-        <v>0.926963737424515</v>
+        <v>0.4543297064910732</v>
       </c>
       <c r="G14">
-        <v>0.9423891247309371</v>
+        <v>0.2929459374037009</v>
       </c>
       <c r="H14">
-        <v>0.3320570854196347</v>
+        <v>0.4408810829956167</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.014273796761074</v>
+        <v>0.682026519602573</v>
       </c>
       <c r="M14">
-        <v>64.68313791105362</v>
+        <v>17.26543402243834</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.653794264274552</v>
+        <v>1.392908676305979</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4330366748794461</v>
+        <v>0.1761422439164591</v>
       </c>
       <c r="D15">
-        <v>0.101266792103516</v>
+        <v>0.03308029358576903</v>
       </c>
       <c r="E15">
-        <v>1.259633322080902</v>
+        <v>0.2835887909709953</v>
       </c>
       <c r="F15">
-        <v>0.9009051539441799</v>
+        <v>0.4549252586784576</v>
       </c>
       <c r="G15">
-        <v>0.911999907359629</v>
+        <v>0.2936637893628387</v>
       </c>
       <c r="H15">
-        <v>0.3209746364242818</v>
+        <v>0.4422593881536585</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.947132551931077</v>
+        <v>0.675370809300972</v>
       </c>
       <c r="M15">
-        <v>63.52348501530395</v>
+        <v>17.0862683062831</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.566002304190249</v>
+        <v>1.397257543302317</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3381651864128017</v>
+        <v>0.1815287445181042</v>
       </c>
       <c r="D16">
-        <v>0.09168612567714263</v>
+        <v>0.03153825775304853</v>
       </c>
       <c r="E16">
-        <v>1.091306501618604</v>
+        <v>0.2715521001509416</v>
       </c>
       <c r="F16">
-        <v>0.768500181659526</v>
+        <v>0.4586646367682832</v>
       </c>
       <c r="G16">
-        <v>0.758863036793926</v>
+        <v>0.2981032243926336</v>
       </c>
       <c r="H16">
-        <v>0.2663956031418167</v>
+        <v>0.4503819700635887</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.602394646775394</v>
+        <v>0.637347537883187</v>
       </c>
       <c r="M16">
-        <v>57.40315684596493</v>
+        <v>16.05915440345979</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.126187505834906</v>
+        <v>1.423334480581957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2911845594468403</v>
+        <v>0.1849940971603843</v>
       </c>
       <c r="D17">
-        <v>0.08638805916460512</v>
+        <v>0.03059359679125606</v>
       </c>
       <c r="E17">
-        <v>1.002724310366261</v>
+        <v>0.2642639736718877</v>
       </c>
       <c r="F17">
-        <v>0.6987852952155222</v>
+        <v>0.4612462696342376</v>
       </c>
       <c r="G17">
-        <v>0.679135277903967</v>
+        <v>0.3011128529173561</v>
       </c>
       <c r="H17">
-        <v>0.2389864897798049</v>
+        <v>0.4555629467638767</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.417224723028596</v>
+        <v>0.6141225264903767</v>
       </c>
       <c r="M17">
-        <v>53.99582400115253</v>
+        <v>15.42865915410528</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.89925898460686</v>
+        <v>1.440349299989776</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2672058580051484</v>
+        <v>0.1870454036404254</v>
       </c>
       <c r="D18">
-        <v>0.08349571278653656</v>
+        <v>0.03005072624541327</v>
       </c>
       <c r="E18">
-        <v>0.9557275553222127</v>
+        <v>0.26010629060643</v>
       </c>
       <c r="F18">
-        <v>0.6619055875619111</v>
+        <v>0.4628354074254801</v>
       </c>
       <c r="G18">
-        <v>0.6372293869714127</v>
+        <v>0.3029473261187405</v>
       </c>
       <c r="H18">
-        <v>0.2249203135473152</v>
+        <v>0.4586149339121874</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.317794147358597</v>
+        <v>0.6007996305125118</v>
       </c>
       <c r="M18">
-        <v>52.12994021344855</v>
+        <v>15.06585170368345</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.780676769878852</v>
+        <v>1.450504390472418</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.259535874318928</v>
+        <v>0.1877498300182765</v>
       </c>
       <c r="D19">
-        <v>0.08253907926413717</v>
+        <v>0.02986699963788197</v>
       </c>
       <c r="E19">
-        <v>0.9403958447016834</v>
+        <v>0.258704358902861</v>
       </c>
       <c r="F19">
-        <v>0.6499010588565568</v>
+        <v>0.4633912300414451</v>
       </c>
       <c r="G19">
-        <v>0.6236310237820959</v>
+        <v>0.3035860435322348</v>
       </c>
       <c r="H19">
-        <v>0.2204124509816552</v>
+        <v>0.4596605841493755</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.285166495293964</v>
+        <v>0.5962946778993796</v>
       </c>
       <c r="M19">
-        <v>51.51200276663371</v>
+        <v>14.94298161488325</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.742312506480999</v>
+        <v>1.454005541010844</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2958518373670884</v>
+        <v>0.1846191660382601</v>
       </c>
       <c r="D20">
-        <v>0.08693499744045141</v>
+        <v>0.030694108251339</v>
       </c>
       <c r="E20">
-        <v>1.011719667880293</v>
+        <v>0.2650362392729733</v>
       </c>
       <c r="F20">
-        <v>0.7058554988171579</v>
+        <v>0.4609606281412084</v>
       </c>
       <c r="G20">
-        <v>0.6871909211525207</v>
+        <v>0.3007817304640383</v>
       </c>
       <c r="H20">
-        <v>0.2417189594357438</v>
+        <v>0.4550039516419275</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.436158830483919</v>
+        <v>0.6165911571426079</v>
       </c>
       <c r="M20">
-        <v>54.34822793959177</v>
+        <v>15.49579294282836</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.922112384071255</v>
+        <v>1.438499774222379</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4622811160992342</v>
+        <v>0.1748021342613271</v>
       </c>
       <c r="D21">
-        <v>0.1039884928807666</v>
+        <v>0.0334788403510089</v>
       </c>
       <c r="E21">
-        <v>1.309346120799354</v>
+        <v>0.2867269586145369</v>
       </c>
       <c r="F21">
-        <v>0.9398288224253406</v>
+        <v>0.4540499511904699</v>
       </c>
       <c r="G21">
-        <v>0.9574216027997124</v>
+        <v>0.2926075327756337</v>
       </c>
       <c r="H21">
-        <v>0.3375662830722916</v>
+        <v>0.4402241388905566</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.047363405669046</v>
+        <v>0.6852202595916879</v>
       </c>
       <c r="M21">
-        <v>65.25089988721737</v>
+        <v>17.35134269693907</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.697277134185924</v>
+        <v>1.390843904201404</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6344520415669166</v>
+        <v>0.1689254114454428</v>
       </c>
       <c r="D22">
-        <v>0.1184718590224918</v>
+        <v>0.03530337199913447</v>
       </c>
       <c r="E22">
-        <v>1.587694093338953</v>
+        <v>0.3012303178564082</v>
       </c>
       <c r="F22">
-        <v>1.154645673670075</v>
+        <v>0.4504929578178078</v>
       </c>
       <c r="G22">
-        <v>1.211202510011319</v>
+        <v>0.2882236919819832</v>
       </c>
       <c r="H22">
-        <v>0.4328795593941805</v>
+        <v>0.4312221284568096</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.597443552108018</v>
+        <v>0.7304247846223859</v>
       </c>
       <c r="M22">
-        <v>74.34205746075446</v>
+        <v>18.56300348761812</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.436065961484047</v>
+        <v>1.363093906954418</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5333617029342577</v>
+        <v>0.1720115133061597</v>
       </c>
       <c r="D23">
-        <v>0.1102521567005965</v>
+        <v>0.03432915106562007</v>
       </c>
       <c r="E23">
-        <v>1.426895615022637</v>
+        <v>0.2934585490271218</v>
       </c>
       <c r="F23">
-        <v>1.031286982609785</v>
+        <v>0.4523020662879347</v>
       </c>
       <c r="G23">
-        <v>1.064836492397987</v>
+        <v>0.2904738872137926</v>
       </c>
       <c r="H23">
-        <v>0.3774110451459904</v>
+        <v>0.4359657271373862</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.2818363306896</v>
+        <v>0.7062643451207293</v>
       </c>
       <c r="M23">
-        <v>69.20465537488059</v>
+        <v>17.91639241104048</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.008961207626839</v>
+        <v>1.377588321600001</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2937325604106533</v>
+        <v>0.1847884887736058</v>
       </c>
       <c r="D24">
-        <v>0.08668726116677306</v>
+        <v>0.03064866631444829</v>
       </c>
       <c r="E24">
-        <v>1.007640945600819</v>
+        <v>0.2646869974477823</v>
       </c>
       <c r="F24">
-        <v>0.7026493177899624</v>
+        <v>0.4610894401931418</v>
       </c>
       <c r="G24">
-        <v>0.6835370062301536</v>
+        <v>0.3009311067863365</v>
       </c>
       <c r="H24">
-        <v>0.2404784598485179</v>
+        <v>0.4552564449683985</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.427577413785883</v>
+        <v>0.6154749978049665</v>
       </c>
       <c r="M24">
-        <v>54.1886238397617</v>
+        <v>15.46544278085003</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.91174420574373</v>
+        <v>1.439334784121201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1557180848049029</v>
+        <v>0.2007810763769839</v>
       </c>
       <c r="D25">
-        <v>0.06742336863707266</v>
+        <v>0.02669664225123114</v>
       </c>
       <c r="E25">
-        <v>0.7121860007320322</v>
+        <v>0.2349503146567287</v>
       </c>
       <c r="F25">
-        <v>0.4743314883657277</v>
+        <v>0.4745360199817696</v>
       </c>
       <c r="G25">
-        <v>0.4273959772114182</v>
+        <v>0.3161433789587917</v>
       </c>
       <c r="H25">
-        <v>0.1594014329741498</v>
+        <v>0.4788092065533505</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.786765428553991</v>
+        <v>0.5188840749475787</v>
       </c>
       <c r="M25">
-        <v>41.7067113439478</v>
+        <v>12.81526114358201</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.196926929599272</v>
+        <v>1.519967051521732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_88/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2143484679778282</v>
+        <v>0.09617643880872606</v>
       </c>
       <c r="D2">
-        <v>0.02380025060995195</v>
+        <v>0.05525530877309137</v>
       </c>
       <c r="E2">
-        <v>0.2140565575044207</v>
+        <v>0.5476833799234484</v>
       </c>
       <c r="F2">
-        <v>0.4876855245406659</v>
+        <v>0.355091379495633</v>
       </c>
       <c r="G2">
-        <v>0.3305297921427695</v>
+        <v>0.2976197570894783</v>
       </c>
       <c r="H2">
-        <v>0.4984295297481438</v>
+        <v>0.1256842650589221</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4487302040882639</v>
+        <v>1.409045136986094</v>
       </c>
       <c r="M2">
-        <v>10.85609145848326</v>
+        <v>33.77878247301777</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.590813011429276</v>
+        <v>0.8497691020066185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2246088004198441</v>
+        <v>0.06999526998935579</v>
       </c>
       <c r="D3">
-        <v>0.02184503657546344</v>
+        <v>0.0476353142995336</v>
       </c>
       <c r="E3">
-        <v>0.2004684574231206</v>
+        <v>0.453381897288196</v>
       </c>
       <c r="F3">
-        <v>0.4985428804552541</v>
+        <v>0.2921375188103852</v>
       </c>
       <c r="G3">
-        <v>0.342170122640951</v>
+        <v>0.2307554852904801</v>
       </c>
       <c r="H3">
-        <v>0.5131071354566643</v>
+        <v>0.1124541666828804</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4017053660479917</v>
+        <v>1.183158568011947</v>
       </c>
       <c r="M3">
-        <v>9.52247177572184</v>
+        <v>28.80844773575683</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.645694871359751</v>
+        <v>0.6793491069842617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2314175227517836</v>
+        <v>0.05866643218788425</v>
       </c>
       <c r="D4">
-        <v>0.02064819267901186</v>
+        <v>0.04315065897272774</v>
       </c>
       <c r="E4">
-        <v>0.1923913705296698</v>
+        <v>0.4010261595080777</v>
       </c>
       <c r="F4">
-        <v>0.5061426335686932</v>
+        <v>0.2597985497795392</v>
       </c>
       <c r="G4">
-        <v>0.350218186585856</v>
+        <v>0.1970510968083445</v>
       </c>
       <c r="H4">
-        <v>0.5227868813633876</v>
+        <v>0.1077836088267858</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3730637187281616</v>
+        <v>1.054042023254993</v>
       </c>
       <c r="M4">
-        <v>8.700468907342611</v>
+        <v>25.88287658473672</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.682685390222474</v>
+        <v>0.5975195187569398</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.234317636652122</v>
+        <v>0.05500281662199313</v>
       </c>
       <c r="D5">
-        <v>0.02016138879231733</v>
+        <v>0.04135981650288301</v>
       </c>
       <c r="E5">
-        <v>0.1891646336448005</v>
+        <v>0.3807731452415126</v>
       </c>
       <c r="F5">
-        <v>0.5094703732676891</v>
+        <v>0.2479301045116529</v>
       </c>
       <c r="G5">
-        <v>0.3537196949427255</v>
+        <v>0.1848265370275541</v>
       </c>
       <c r="H5">
-        <v>0.5268973298281594</v>
+        <v>0.1066048647444973</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3614472118009076</v>
+        <v>1.003274058844653</v>
       </c>
       <c r="M5">
-        <v>8.364675369643066</v>
+        <v>24.71464487479852</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.698573219334605</v>
+        <v>0.568890469717374</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2348067081310887</v>
+        <v>0.05444613536405996</v>
       </c>
       <c r="D6">
-        <v>0.02008061100747227</v>
+        <v>0.04106437102888094</v>
       </c>
       <c r="E6">
-        <v>0.1886326859133476</v>
+        <v>0.3774678973723766</v>
       </c>
       <c r="F6">
-        <v>0.5100367666705807</v>
+        <v>0.2460315013708225</v>
       </c>
       <c r="G6">
-        <v>0.3543143815443557</v>
+        <v>0.1828794221114691</v>
       </c>
       <c r="H6">
-        <v>0.5275898264528749</v>
+        <v>0.1064492984890251</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3595215481908269</v>
+        <v>0.9949420146170951</v>
       </c>
       <c r="M6">
-        <v>8.30886683126397</v>
+        <v>24.5219170480409</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.701260127539626</v>
+        <v>0.5643960762254636</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.231456129725899</v>
+        <v>0.05861343835796617</v>
       </c>
       <c r="D7">
-        <v>0.02064162374562528</v>
+        <v>0.04312637212073867</v>
       </c>
       <c r="E7">
-        <v>0.1923475942547341</v>
+        <v>0.4007489915441838</v>
       </c>
       <c r="F7">
-        <v>0.5061865833515498</v>
+        <v>0.2596335062123458</v>
       </c>
       <c r="G7">
-        <v>0.3502645169983865</v>
+        <v>0.1968805080135994</v>
       </c>
       <c r="H7">
-        <v>0.5228416473364774</v>
+        <v>0.1077649445355036</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3729068348544899</v>
+        <v>1.05335050093862</v>
       </c>
       <c r="M7">
-        <v>8.695943634059404</v>
+        <v>25.86703324288936</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.68289638217837</v>
+        <v>0.5971154953926572</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2177791315052531</v>
+        <v>0.08599728516074379</v>
       </c>
       <c r="D8">
-        <v>0.02312532802681488</v>
+        <v>0.05257920275888495</v>
       </c>
       <c r="E8">
-        <v>0.2093148146413526</v>
+        <v>0.5138002318917856</v>
       </c>
       <c r="F8">
-        <v>0.4912330782928436</v>
+        <v>0.3318847890184955</v>
       </c>
       <c r="G8">
-        <v>0.3343535846694863</v>
+        <v>0.2728083416493448</v>
       </c>
       <c r="H8">
-        <v>0.5033505898925199</v>
+        <v>0.1203078515842648</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4324659760582676</v>
+        <v>1.328781577220752</v>
       </c>
       <c r="M8">
-        <v>10.39689593605277</v>
+        <v>32.03342681468968</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.609044327412633</v>
+        <v>0.785578752015212</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1951084218310228</v>
+        <v>0.1933569698622506</v>
       </c>
       <c r="D9">
-        <v>0.02802568257676796</v>
+        <v>0.07347733716555638</v>
       </c>
       <c r="E9">
-        <v>0.2448042600444467</v>
+        <v>0.8004117778095576</v>
       </c>
       <c r="F9">
-        <v>0.4694909897461415</v>
+        <v>0.54129953445333</v>
       </c>
       <c r="G9">
-        <v>0.3105112337966673</v>
+        <v>0.5016225787436781</v>
       </c>
       <c r="H9">
-        <v>0.470516029788925</v>
+        <v>0.1814477305491806</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5512590821140293</v>
+        <v>1.982500608819748</v>
       </c>
       <c r="M9">
-        <v>13.70905653880578</v>
+        <v>45.64178406914857</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.490984138753191</v>
+        <v>1.40111778000167</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1811412725644459</v>
+        <v>0.3440050683082276</v>
       </c>
       <c r="D10">
-        <v>0.03164611532149308</v>
+        <v>0.09231524113562273</v>
       </c>
       <c r="E10">
-        <v>0.2723884410755772</v>
+        <v>1.102038960263236</v>
       </c>
       <c r="F10">
-        <v>0.4583842861008876</v>
+        <v>0.7769542647391816</v>
       </c>
       <c r="G10">
-        <v>0.2977739445548906</v>
+        <v>0.7685751382539223</v>
       </c>
       <c r="H10">
-        <v>0.4498005986246056</v>
+        <v>0.2697865478509982</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6400026013581623</v>
+        <v>2.624642521785802</v>
       </c>
       <c r="M10">
-        <v>16.13107748827741</v>
+        <v>57.80676816787104</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.421443302518981</v>
+        <v>2.153937205995931</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1754071778944706</v>
+        <v>0.4487366129562034</v>
       </c>
       <c r="D11">
-        <v>0.03329813417441585</v>
+        <v>0.1027395357378111</v>
       </c>
       <c r="E11">
-        <v>0.2853027155737919</v>
+        <v>1.286430198235315</v>
       </c>
       <c r="F11">
-        <v>0.4544423203391617</v>
+        <v>0.92190148025837</v>
       </c>
       <c r="G11">
-        <v>0.2930819396432156</v>
+        <v>0.9364793275480849</v>
       </c>
       <c r="H11">
-        <v>0.4411437846391522</v>
+        <v>0.3298960661661852</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6807532758125205</v>
+        <v>3.001243489349889</v>
       </c>
       <c r="M11">
-        <v>17.23117341454076</v>
+        <v>64.45888172601491</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.393735803920237</v>
+        <v>2.63670948774211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1733280548597378</v>
+        <v>0.4979062481258083</v>
       </c>
       <c r="D12">
-        <v>0.03392449331468583</v>
+        <v>0.1071853800038127</v>
       </c>
       <c r="E12">
-        <v>0.2902489303474738</v>
+        <v>1.368797210187729</v>
       </c>
       <c r="F12">
-        <v>0.4531138299475046</v>
+        <v>0.9861982771846698</v>
       </c>
       <c r="G12">
-        <v>0.2914691657602049</v>
+        <v>1.011761892574867</v>
       </c>
       <c r="H12">
-        <v>0.4379782390161751</v>
+        <v>0.3576224673435746</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6962445151754935</v>
+        <v>3.166376049686903</v>
       </c>
       <c r="M12">
-        <v>17.6475706522665</v>
+        <v>67.27276839100591</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.383824820013643</v>
+        <v>2.854749595888876</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1737716767427742</v>
+        <v>0.4867664288543097</v>
       </c>
       <c r="D13">
-        <v>0.03378956033314751</v>
+        <v>0.1061988357824646</v>
       </c>
       <c r="E13">
-        <v>0.2891811368987618</v>
+        <v>1.350329340399739</v>
       </c>
       <c r="F13">
-        <v>0.453392565740856</v>
+        <v>0.9718172956399798</v>
       </c>
       <c r="G13">
-        <v>0.291809123543743</v>
+        <v>0.9948823991410904</v>
       </c>
       <c r="H13">
-        <v>0.4386549500755876</v>
+        <v>0.3513695125071621</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6929054531267127</v>
+        <v>3.129502164960485</v>
       </c>
       <c r="M13">
-        <v>17.55789930200064</v>
+        <v>66.64968001038181</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.385933209525007</v>
+        <v>2.805787708351147</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1752342598171737</v>
+        <v>0.4525482779193766</v>
       </c>
       <c r="D14">
-        <v>0.03334964927472583</v>
+        <v>0.103092987115815</v>
       </c>
       <c r="E14">
-        <v>0.2857085050412422</v>
+        <v>1.292897590314737</v>
       </c>
       <c r="F14">
-        <v>0.4543297064910732</v>
+        <v>0.9269637374245292</v>
       </c>
       <c r="G14">
-        <v>0.2929459374037009</v>
+        <v>0.9423891247309513</v>
       </c>
       <c r="H14">
-        <v>0.4408810829956167</v>
+        <v>0.332057085419649</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.682026519602573</v>
+        <v>3.014273796761131</v>
       </c>
       <c r="M14">
-        <v>17.26543402243834</v>
+        <v>64.68313791105368</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.392908676305979</v>
+        <v>2.653794264274552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1761422439164591</v>
+        <v>0.4330366748791619</v>
       </c>
       <c r="D15">
-        <v>0.03308029358576903</v>
+        <v>0.1012667921036297</v>
       </c>
       <c r="E15">
-        <v>0.2835887909709953</v>
+        <v>1.259633322080902</v>
       </c>
       <c r="F15">
-        <v>0.4549252586784576</v>
+        <v>0.9009051539441941</v>
       </c>
       <c r="G15">
-        <v>0.2936637893628387</v>
+        <v>0.9119999073595579</v>
       </c>
       <c r="H15">
-        <v>0.4422593881536585</v>
+        <v>0.3209746364242534</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.675370809300972</v>
+        <v>2.947132551931105</v>
       </c>
       <c r="M15">
-        <v>17.0862683062831</v>
+        <v>63.523485015304</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.397257543302317</v>
+        <v>2.566002304190221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1815287445181042</v>
+        <v>0.338165186412887</v>
       </c>
       <c r="D16">
-        <v>0.03153825775304853</v>
+        <v>0.09168612567729184</v>
       </c>
       <c r="E16">
-        <v>0.2715521001509416</v>
+        <v>1.091306501618597</v>
       </c>
       <c r="F16">
-        <v>0.4586646367682832</v>
+        <v>0.7685001816595403</v>
       </c>
       <c r="G16">
-        <v>0.2981032243926336</v>
+        <v>0.7588630367940112</v>
       </c>
       <c r="H16">
-        <v>0.4503819700635887</v>
+        <v>0.2663956031418167</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.637347537883187</v>
+        <v>2.602394646775281</v>
       </c>
       <c r="M16">
-        <v>16.05915440345979</v>
+        <v>57.40315684596487</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.423334480581957</v>
+        <v>2.126187505834821</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1849940971603843</v>
+        <v>0.2911845594466769</v>
       </c>
       <c r="D17">
-        <v>0.03059359679125606</v>
+        <v>0.0863880591644488</v>
       </c>
       <c r="E17">
-        <v>0.2642639736718877</v>
+        <v>1.002724310366261</v>
       </c>
       <c r="F17">
-        <v>0.4612462696342376</v>
+        <v>0.6987852952155151</v>
       </c>
       <c r="G17">
-        <v>0.3011128529173561</v>
+        <v>0.6791352779039528</v>
       </c>
       <c r="H17">
-        <v>0.4555629467638767</v>
+        <v>0.2389864897798191</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6141225264903767</v>
+        <v>2.417224723028511</v>
       </c>
       <c r="M17">
-        <v>15.42865915410528</v>
+        <v>53.9958240011523</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.440349299989776</v>
+        <v>1.899258984606831</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1870454036404254</v>
+        <v>0.2672058580051413</v>
       </c>
       <c r="D18">
-        <v>0.03005072624541327</v>
+        <v>0.08349571278638734</v>
       </c>
       <c r="E18">
-        <v>0.26010629060643</v>
+        <v>0.9557275553222553</v>
       </c>
       <c r="F18">
-        <v>0.4628354074254801</v>
+        <v>0.661905587561904</v>
       </c>
       <c r="G18">
-        <v>0.3029473261187405</v>
+        <v>0.6372293869714269</v>
       </c>
       <c r="H18">
-        <v>0.4586149339121874</v>
+        <v>0.2249203135473294</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6007996305125118</v>
+        <v>2.317794147358569</v>
       </c>
       <c r="M18">
-        <v>15.06585170368345</v>
+        <v>52.12994021344878</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.450504390472418</v>
+        <v>1.780676769878767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1877498300182765</v>
+        <v>0.2595358743189351</v>
       </c>
       <c r="D19">
-        <v>0.02986699963788197</v>
+        <v>0.08253907926384585</v>
       </c>
       <c r="E19">
-        <v>0.258704358902861</v>
+        <v>0.9403958447016763</v>
       </c>
       <c r="F19">
-        <v>0.4633912300414451</v>
+        <v>0.6499010588565568</v>
       </c>
       <c r="G19">
-        <v>0.3035860435322348</v>
+        <v>0.6236310237820675</v>
       </c>
       <c r="H19">
-        <v>0.4596605841493755</v>
+        <v>0.2204124509816552</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5962946778993796</v>
+        <v>2.285166495293936</v>
       </c>
       <c r="M19">
-        <v>14.94298161488325</v>
+        <v>51.5120027666336</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.454005541010844</v>
+        <v>1.742312506480971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1846191660382601</v>
+        <v>0.2958518373670316</v>
       </c>
       <c r="D20">
-        <v>0.030694108251339</v>
+        <v>0.08693499744034483</v>
       </c>
       <c r="E20">
-        <v>0.2650362392729733</v>
+        <v>1.011719667880264</v>
       </c>
       <c r="F20">
-        <v>0.4609606281412084</v>
+        <v>0.7058554988171792</v>
       </c>
       <c r="G20">
-        <v>0.3007817304640383</v>
+        <v>0.6871909211524496</v>
       </c>
       <c r="H20">
-        <v>0.4550039516419275</v>
+        <v>0.2417189594357296</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6165911571426079</v>
+        <v>2.436158830483862</v>
       </c>
       <c r="M20">
-        <v>15.49579294282836</v>
+        <v>54.34822793959177</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.438499774222379</v>
+        <v>1.922112384071283</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1748021342613271</v>
+        <v>0.4622811160994615</v>
       </c>
       <c r="D21">
-        <v>0.0334788403510089</v>
+        <v>0.1039884928807666</v>
       </c>
       <c r="E21">
-        <v>0.2867269586145369</v>
+        <v>1.309346120799312</v>
       </c>
       <c r="F21">
-        <v>0.4540499511904699</v>
+        <v>0.9398288224253548</v>
       </c>
       <c r="G21">
-        <v>0.2926075327756337</v>
+        <v>0.9574216027997267</v>
       </c>
       <c r="H21">
-        <v>0.4402241388905566</v>
+        <v>0.337566283072178</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6852202595916879</v>
+        <v>3.047363405669159</v>
       </c>
       <c r="M21">
-        <v>17.35134269693907</v>
+        <v>65.25089988721777</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.390843904201404</v>
+        <v>2.697277134185839</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1689254114454428</v>
+        <v>0.6344520415668953</v>
       </c>
       <c r="D22">
-        <v>0.03530337199913447</v>
+        <v>0.1184718590225273</v>
       </c>
       <c r="E22">
-        <v>0.3012303178564082</v>
+        <v>1.587694093338932</v>
       </c>
       <c r="F22">
-        <v>0.4504929578178078</v>
+        <v>1.154645673670061</v>
       </c>
       <c r="G22">
-        <v>0.2882236919819832</v>
+        <v>1.211202510011304</v>
       </c>
       <c r="H22">
-        <v>0.4312221284568096</v>
+        <v>0.4328795593941805</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7304247846223859</v>
+        <v>3.597443552107961</v>
       </c>
       <c r="M22">
-        <v>18.56300348761812</v>
+        <v>74.34205746075401</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.363093906954418</v>
+        <v>3.436065961483905</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1720115133061597</v>
+        <v>0.53336170293435</v>
       </c>
       <c r="D23">
-        <v>0.03432915106562007</v>
+        <v>0.1102521567006036</v>
       </c>
       <c r="E23">
-        <v>0.2934585490271218</v>
+        <v>1.426895615022651</v>
       </c>
       <c r="F23">
-        <v>0.4523020662879347</v>
+        <v>1.031286982609799</v>
       </c>
       <c r="G23">
-        <v>0.2904738872137926</v>
+        <v>1.064836492398015</v>
       </c>
       <c r="H23">
-        <v>0.4359657271373862</v>
+        <v>0.3774110451460047</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7062643451207293</v>
+        <v>3.281836330689657</v>
       </c>
       <c r="M23">
-        <v>17.91639241104048</v>
+        <v>69.2046553748811</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.377588321600001</v>
+        <v>3.008961207626953</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1847884887736058</v>
+        <v>0.293732560410497</v>
       </c>
       <c r="D24">
-        <v>0.03064866631444829</v>
+        <v>0.08668726116666647</v>
       </c>
       <c r="E24">
-        <v>0.2646869974477823</v>
+        <v>1.007640945600798</v>
       </c>
       <c r="F24">
-        <v>0.4610894401931418</v>
+        <v>0.7026493177899482</v>
       </c>
       <c r="G24">
-        <v>0.3009311067863365</v>
+        <v>0.6835370062301109</v>
       </c>
       <c r="H24">
-        <v>0.4552564449683985</v>
+        <v>0.24047845984839</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6154749978049665</v>
+        <v>2.427577413785883</v>
       </c>
       <c r="M24">
-        <v>15.46544278085003</v>
+        <v>54.18862383976165</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.439334784121201</v>
+        <v>1.911744205743759</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2007810763769839</v>
+        <v>0.1557180848053434</v>
       </c>
       <c r="D25">
-        <v>0.02669664225123114</v>
+        <v>0.06742336863680976</v>
       </c>
       <c r="E25">
-        <v>0.2349503146567287</v>
+        <v>0.7121860007320393</v>
       </c>
       <c r="F25">
-        <v>0.4745360199817696</v>
+        <v>0.4743314883657277</v>
       </c>
       <c r="G25">
-        <v>0.3161433789587917</v>
+        <v>0.4273959772114182</v>
       </c>
       <c r="H25">
-        <v>0.4788092065533505</v>
+        <v>0.1594014329741498</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5188840749475787</v>
+        <v>1.786765428554077</v>
       </c>
       <c r="M25">
-        <v>12.81526114358201</v>
+        <v>41.70671134394775</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.519967051521732</v>
+        <v>1.196926929599215</v>
       </c>
     </row>
   </sheetData>
